--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2856.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2856.xlsx
@@ -354,7 +354,7 @@
         <v>2.24110852308116</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.330760020202398</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2856.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2856.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.186367058101931</v>
+        <v>1.352274417877197</v>
       </c>
       <c r="B1">
-        <v>2.24110852308116</v>
+        <v>1.40834367275238</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.91486668586731</v>
       </c>
       <c r="D1">
-        <v>2.330760020202398</v>
+        <v>3.166523456573486</v>
       </c>
       <c r="E1">
-        <v>1.216388441426282</v>
+        <v>1.056880950927734</v>
       </c>
     </row>
   </sheetData>
